--- a/election_votar_data/LOHAGARA/CHARAMBA/152603/152603_com_1390_female_without_photo_80_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152603/152603_com_1390_female_without_photo_80_2025-11-24.pdf.xlsx
@@ -1340,7 +1340,7 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>১৩০৪</t>
+          <t>১৩৩৪</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -2642,7 +2642,7 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>১৩১১</t>
+          <t>১৩৪১</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2684,7 +2684,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>১৩১৩</t>
+          <t>১৩৪৩</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>১৩০৩</t>
+          <t>১৩৩৩</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -12302,7 +12302,7 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>১৩০১</t>
+          <t>১৩৩১</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
@@ -15914,7 +15914,7 @@
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>১৩১৭</t>
+          <t>১৩৪৭</t>
         </is>
       </c>
       <c r="B369" s="4" t="inlineStr">
@@ -17762,7 +17762,7 @@
     <row r="413">
       <c r="A413" s="3" t="inlineStr">
         <is>
-          <t>১৩১৫</t>
+          <t>১৩৪৫</t>
         </is>
       </c>
       <c r="B413" s="4" t="inlineStr">
@@ -24104,7 +24104,7 @@
     <row r="564">
       <c r="A564" s="3" t="inlineStr">
         <is>
-          <t>১৩১২</t>
+          <t>১৩৪২</t>
         </is>
       </c>
       <c r="B564" s="4" t="inlineStr">
@@ -49430,7 +49430,7 @@
     <row r="1167">
       <c r="A1167" s="3" t="inlineStr">
         <is>
-          <t>১৩০৬</t>
+          <t>১৩৩৬</t>
         </is>
       </c>
       <c r="B1167" s="4" t="inlineStr">
@@ -50228,7 +50228,7 @@
     <row r="1186">
       <c r="A1186" s="3" t="inlineStr">
         <is>
-          <t>১৩১৬</t>
+          <t>১৩৪৬</t>
         </is>
       </c>
       <c r="B1186" s="4" t="inlineStr">
@@ -52202,7 +52202,7 @@
     <row r="1233">
       <c r="A1233" s="3" t="inlineStr">
         <is>
-          <t>১৩০৫</t>
+          <t>১৩৩৫</t>
         </is>
       </c>
       <c r="B1233" s="4" t="inlineStr">
@@ -55604,7 +55604,7 @@
     <row r="1314">
       <c r="A1314" s="3" t="inlineStr">
         <is>
-          <t>১৩০৭</t>
+          <t>১৩৩৭</t>
         </is>
       </c>
       <c r="B1314" s="4" t="inlineStr">
@@ -55646,7 +55646,7 @@
     <row r="1315">
       <c r="A1315" s="3" t="inlineStr">
         <is>
-          <t>১৩১৪</t>
+          <t>১৩৪৪</t>
         </is>
       </c>
       <c r="B1315" s="4" t="inlineStr">
@@ -55814,7 +55814,7 @@
     <row r="1319">
       <c r="A1319" s="3" t="inlineStr">
         <is>
-          <t>১৩০০</t>
+          <t>১৩৩০</t>
         </is>
       </c>
       <c r="B1319" s="4" t="inlineStr">
@@ -57074,7 +57074,7 @@
     <row r="1349">
       <c r="A1349" s="3" t="inlineStr">
         <is>
-          <t>১৩০৮</t>
+          <t>১৩৩৮</t>
         </is>
       </c>
       <c r="B1349" s="4" t="inlineStr">
@@ -57242,7 +57242,7 @@
     <row r="1353">
       <c r="A1353" s="3" t="inlineStr">
         <is>
-          <t>১৩০২</t>
+          <t>১৩৩২</t>
         </is>
       </c>
       <c r="B1353" s="4" t="inlineStr">
@@ -57284,7 +57284,7 @@
     <row r="1354">
       <c r="A1354" s="3" t="inlineStr">
         <is>
-          <t>১৩০৯</t>
+          <t>১৩৩৯</t>
         </is>
       </c>
       <c r="B1354" s="4" t="inlineStr">
@@ -58628,7 +58628,7 @@
     <row r="1386">
       <c r="A1386" s="3" t="inlineStr">
         <is>
-          <t>১৩১০</t>
+          <t>১৩৪০</t>
         </is>
       </c>
       <c r="B1386" s="4" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHARAMBA/152603/152603_com_1390_female_without_photo_80_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152603/152603_com_1390_female_without_photo_80_2025-11-24.pdf.xlsx
@@ -1340,7 +1340,7 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৪</t>
+          <t>১৩০৪</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -2642,7 +2642,7 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>১৩৪১</t>
+          <t>১৩১১</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2684,7 +2684,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>১৩৪৩</t>
+          <t>১৩১৩</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৩</t>
+          <t>১৩০৩</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -12302,7 +12302,7 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>১৩৩১</t>
+          <t>১৩০১</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
@@ -15914,7 +15914,7 @@
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>১৩৪৭</t>
+          <t>১৩১৭</t>
         </is>
       </c>
       <c r="B369" s="4" t="inlineStr">
@@ -17762,7 +17762,7 @@
     <row r="413">
       <c r="A413" s="3" t="inlineStr">
         <is>
-          <t>১৩৪৫</t>
+          <t>১৩১৫</t>
         </is>
       </c>
       <c r="B413" s="4" t="inlineStr">
@@ -24104,7 +24104,7 @@
     <row r="564">
       <c r="A564" s="3" t="inlineStr">
         <is>
-          <t>১৩৪২</t>
+          <t>১৩১২</t>
         </is>
       </c>
       <c r="B564" s="4" t="inlineStr">
@@ -49430,7 +49430,7 @@
     <row r="1167">
       <c r="A1167" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৬</t>
+          <t>১৩০৬</t>
         </is>
       </c>
       <c r="B1167" s="4" t="inlineStr">
@@ -50228,7 +50228,7 @@
     <row r="1186">
       <c r="A1186" s="3" t="inlineStr">
         <is>
-          <t>১৩৪৬</t>
+          <t>১৩১৬</t>
         </is>
       </c>
       <c r="B1186" s="4" t="inlineStr">
@@ -52202,7 +52202,7 @@
     <row r="1233">
       <c r="A1233" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৫</t>
+          <t>১৩০৫</t>
         </is>
       </c>
       <c r="B1233" s="4" t="inlineStr">
@@ -55604,7 +55604,7 @@
     <row r="1314">
       <c r="A1314" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৭</t>
+          <t>১৩০৭</t>
         </is>
       </c>
       <c r="B1314" s="4" t="inlineStr">
@@ -55646,7 +55646,7 @@
     <row r="1315">
       <c r="A1315" s="3" t="inlineStr">
         <is>
-          <t>১৩৪৪</t>
+          <t>১৩১৪</t>
         </is>
       </c>
       <c r="B1315" s="4" t="inlineStr">
@@ -55814,7 +55814,7 @@
     <row r="1319">
       <c r="A1319" s="3" t="inlineStr">
         <is>
-          <t>১৩৩০</t>
+          <t>১৩০০</t>
         </is>
       </c>
       <c r="B1319" s="4" t="inlineStr">
@@ -57074,7 +57074,7 @@
     <row r="1349">
       <c r="A1349" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৮</t>
+          <t>১৩০৮</t>
         </is>
       </c>
       <c r="B1349" s="4" t="inlineStr">
@@ -57242,7 +57242,7 @@
     <row r="1353">
       <c r="A1353" s="3" t="inlineStr">
         <is>
-          <t>১৩৩২</t>
+          <t>১৩০২</t>
         </is>
       </c>
       <c r="B1353" s="4" t="inlineStr">
@@ -57284,7 +57284,7 @@
     <row r="1354">
       <c r="A1354" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৯</t>
+          <t>১৩০৯</t>
         </is>
       </c>
       <c r="B1354" s="4" t="inlineStr">
@@ -58628,7 +58628,7 @@
     <row r="1386">
       <c r="A1386" s="3" t="inlineStr">
         <is>
-          <t>১৩৪০</t>
+          <t>১৩১০</t>
         </is>
       </c>
       <c r="B1386" s="4" t="inlineStr">
